--- a/medicine/Sexualité et sexologie/Travestissement_fétichiste/Travestissement_fétichiste.xlsx
+++ b/medicine/Sexualité et sexologie/Travestissement_fétichiste/Travestissement_fétichiste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Travestissement_f%C3%A9tichiste</t>
+          <t>Travestissement_fétichiste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le travestissement (ou transvestisme ou encore travestisme) fétichiste est une préférence sexuelle qui consiste en l'attirance et l'excitation sexuelle pour le port de vêtements du genre opposé. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Travestissement_f%C3%A9tichiste</t>
+          <t>Travestissement_fétichiste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le travestissement fétichiste se réfère spécifiquement au travestissement, c'est-à-dire au port de vêtements de l'autre genre ou constitué d'une matière spécifique[1], dans son acception fétichiste[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le travestissement fétichiste se réfère spécifiquement au travestissement, c'est-à-dire au port de vêtements de l'autre genre ou constitué d'une matière spécifique, dans son acception fétichiste. 
 Le travestissement et le travestisme bivalent constituent des situations différentes du travestissement fétichiste.
-Certains fétichistes travestis collectionnent les vêtements, par exemple chemises de nuit, nuisettes, combinaisons, soutiens-gorge et autres types de robe de chambre, lingerie, bas, collants, chaussures, tabliers[3] et bottes, et autres objets.
+Certains fétichistes travestis collectionnent les vêtements, par exemple chemises de nuit, nuisettes, combinaisons, soutiens-gorge et autres types de robe de chambre, lingerie, bas, collants, chaussures, tabliers et bottes, et autres objets.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Travestissement_f%C3%A9tichiste</t>
+          <t>Travestissement_fétichiste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,16 @@
           <t>Approche clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le Manuel diagnostique et statistique des troubles mentaux (DSM), il existe trois critères qui permettent de diagnostiquer un comportement de « travestissement fétichiste » comme relevant d'une pathologie[2]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Manuel diagnostique et statistique des troubles mentaux (DSM), il existe trois critères qui permettent de diagnostiquer un comportement de « travestissement fétichiste » comme relevant d'une pathologie:
 Fantasmes, envies et excitations sexuelles impliquant le travestissement.
 Cela cause une détresse ou trouble significatif, socialement, au travail et autres endroits.
-La pathologie a été présente pendant 6 mois ou plus[4].
-Ainsi, d'un point de vue clinique, le travestissement fétichiste n'est pas diagnostiqué si l'individu concerné ne ressent pas de souffrance psychique liée à ce comportement (absence de détresse) et que ce comportement n'entrave pas sa vie sociale (par exemple travestissement fétichiste uniquement dans la sphère privée[5]).
-Si dans sa quatrième édition le DSM précisait que le diagnostic ne pouvait s'appliquer qu'aux hommes hétérosexuels ; dans sa cinquième édition il ne fait pas cette restriction : hommes et femmes peuvent remplir les critères diagnostiques, et ceci indépendamment de leur orientation sexuelle[6].
+La pathologie a été présente pendant 6 mois ou plus.
+Ainsi, d'un point de vue clinique, le travestissement fétichiste n'est pas diagnostiqué si l'individu concerné ne ressent pas de souffrance psychique liée à ce comportement (absence de détresse) et que ce comportement n'entrave pas sa vie sociale (par exemple travestissement fétichiste uniquement dans la sphère privée).
+Si dans sa quatrième édition le DSM précisait que le diagnostic ne pouvait s'appliquer qu'aux hommes hétérosexuels ; dans sa cinquième édition il ne fait pas cette restriction : hommes et femmes peuvent remplir les critères diagnostiques, et ceci indépendamment de leur orientation sexuelle.
 </t>
         </is>
       </c>
